--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dkk4-Kremen2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dkk4-Kremen2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Kremen2</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,28 +534,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02506566666666667</v>
+        <v>0.092262</v>
       </c>
       <c r="H2">
-        <v>0.075197</v>
+        <v>0.276786</v>
       </c>
       <c r="I2">
-        <v>0.359854521092049</v>
+        <v>0.674176843971804</v>
       </c>
       <c r="J2">
-        <v>0.3598545210920489</v>
+        <v>0.6741768439718039</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1601973333333333</v>
+        <v>0.08043649999999999</v>
       </c>
       <c r="N2">
-        <v>0.480592</v>
+        <v>0.160873</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.004015452958222222</v>
+        <v>0.007421232362999999</v>
       </c>
       <c r="R2">
-        <v>0.036139076624</v>
+        <v>0.04452739417799999</v>
       </c>
       <c r="S2">
-        <v>0.359854521092049</v>
+        <v>0.674176843971804</v>
       </c>
       <c r="T2">
-        <v>0.3598545210920489</v>
+        <v>0.6741768439718039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,22 +602,22 @@
         <v>0.133768</v>
       </c>
       <c r="I3">
-        <v>0.6401454789079511</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="J3">
-        <v>0.640145478907951</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.1601973333333333</v>
+        <v>0.08043649999999999</v>
       </c>
       <c r="N3">
-        <v>0.480592</v>
+        <v>0.160873</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.007143092295111111</v>
+        <v>0.003586609910666666</v>
       </c>
       <c r="R3">
-        <v>0.06428783065600001</v>
+        <v>0.021519659464</v>
       </c>
       <c r="S3">
-        <v>0.6401454789079511</v>
+        <v>0.3258231560281961</v>
       </c>
       <c r="T3">
-        <v>0.640145478907951</v>
+        <v>0.3258231560281961</v>
       </c>
     </row>
   </sheetData>
